--- a/dataType/gmc_exit_questionnaire.xlsx
+++ b/dataType/gmc_exit_questionnaire.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labkey_DataReleases_V10\dataType\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GMSLabkey\dataType\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A709D4-3B56-4957-9FF6-39A35B189D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -44,9 +39,6 @@
     <t>participant_id</t>
   </si>
   <si>
-    <t>family_id</t>
-  </si>
-  <si>
     <t>interpretation_cohort_id</t>
   </si>
   <si>
@@ -86,9 +78,6 @@
     <t>acmg_classification</t>
   </si>
   <si>
-    <t>assembly</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
@@ -123,12 +112,18 @@
   </si>
   <si>
     <t>integer</t>
+  </si>
+  <si>
+    <t>referral_id</t>
+  </si>
+  <si>
+    <t>genome_build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,19 +517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,15 +537,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,180 +553,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -740,6 +735,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A4BFB859250D564387E302C619C2B830" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3358efe9c84308ba6f2e847f630b7e6e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6c6d246b-e97a-4623-bd89-8186b03da3b7" xmlns:ns4="ea07f7f8-ddfb-47c3-9e5e-d15868d4ccd4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74007ff472514acf2ee0d02077f01870" ns3:_="" ns4:_="">
     <xsd:import namespace="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
@@ -956,7 +957,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -965,13 +966,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07136EC-A99A-4A6E-A7ED-14240A0B2E53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ea07f7f8-ddfb-47c3-9e5e-d15868d4ccd4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9793F005-4E34-462A-8380-5FE7816F7B67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -990,27 +1002,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC5F280A-384B-4E7E-B0CA-75BB59E7132F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07136EC-A99A-4A6E-A7ED-14240A0B2E53}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6c6d246b-e97a-4623-bd89-8186b03da3b7"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ea07f7f8-ddfb-47c3-9e5e-d15868d4ccd4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>